--- a/temp_Roll_Tracker.xlsx
+++ b/temp_Roll_Tracker.xlsx
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="D4" s="16" t="n">
-        <v>30000</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D5" s="17" t="n">
-        <v>9901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D8" s="9" t="n">
-        <v>39900</v>
+        <v>53500</v>
       </c>
     </row>
     <row r="9"/>
